--- a/DZ/data_3.xlsx
+++ b/DZ/data_3.xlsx
@@ -426,25 +426,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.327</v>
+        <v>1.444</v>
       </c>
       <c r="C2">
         <v>141.414</v>
       </c>
       <c r="D2">
-        <v>88.721</v>
+        <v>95.206</v>
       </c>
       <c r="E2">
-        <v>1016.753</v>
+        <v>1023.237</v>
       </c>
       <c r="F2">
-        <v>0.096</v>
+        <v>0.103</v>
       </c>
       <c r="G2">
-        <v>6831.893</v>
+        <v>3775.944</v>
       </c>
       <c r="H2">
-        <v>1.167</v>
+        <v>1.127</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.475</v>
+        <v>1.605</v>
       </c>
       <c r="C3">
         <v>133.15</v>
       </c>
       <c r="D3">
-        <v>94.411</v>
+        <v>101.417</v>
       </c>
       <c r="E3">
-        <v>1009.072</v>
+        <v>1016.077</v>
       </c>
       <c r="F3">
-        <v>0.103</v>
+        <v>0.111</v>
       </c>
       <c r="G3">
-        <v>6642.534</v>
+        <v>3692.554</v>
       </c>
       <c r="H3">
-        <v>1.146</v>
+        <v>1.111</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.651</v>
+        <v>1.796</v>
       </c>
       <c r="C4">
         <v>124.954</v>
       </c>
       <c r="D4">
-        <v>101.128</v>
+        <v>108.744</v>
       </c>
       <c r="E4">
-        <v>1002.722</v>
+        <v>1010.338</v>
       </c>
       <c r="F4">
-        <v>0.112</v>
+        <v>0.121</v>
       </c>
       <c r="G4">
-        <v>6456.103</v>
+        <v>3610.534</v>
       </c>
       <c r="H4">
-        <v>1.127</v>
+        <v>1.095</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.861</v>
+        <v>2.025</v>
       </c>
       <c r="C5">
         <v>116.852</v>
       </c>
       <c r="D5">
-        <v>109.094</v>
+        <v>117.429</v>
       </c>
       <c r="E5">
-        <v>997.921</v>
+        <v>1006.256</v>
       </c>
       <c r="F5">
-        <v>0.123</v>
+        <v>0.132</v>
       </c>
       <c r="G5">
-        <v>6272.962</v>
+        <v>3530.031</v>
       </c>
       <c r="H5">
-        <v>1.108</v>
+        <v>1.081</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.114</v>
+        <v>2.3</v>
       </c>
       <c r="C6">
         <v>108.87</v>
       </c>
       <c r="D6">
-        <v>118.594</v>
+        <v>127.782</v>
       </c>
       <c r="E6">
-        <v>994.948</v>
+        <v>1004.137</v>
       </c>
       <c r="F6">
-        <v>0.135</v>
+        <v>0.146</v>
       </c>
       <c r="G6">
-        <v>6093.522</v>
+        <v>3451.215</v>
       </c>
       <c r="H6">
-        <v>1.09</v>
+        <v>1.067</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.42</v>
+        <v>2.634</v>
       </c>
       <c r="C7">
         <v>101.032</v>
       </c>
       <c r="D7">
-        <v>130</v>
+        <v>140.208</v>
       </c>
       <c r="E7">
-        <v>994.167</v>
+        <v>1004.375</v>
       </c>
       <c r="F7">
-        <v>0.15</v>
+        <v>0.162</v>
       </c>
       <c r="G7">
-        <v>5918.258</v>
+        <v>3374.29</v>
       </c>
       <c r="H7">
-        <v>1.074</v>
+        <v>1.056</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.795</v>
+        <v>3.042</v>
       </c>
       <c r="C8">
         <v>93.36199999999999</v>
       </c>
       <c r="D8">
-        <v>143.797</v>
+        <v>155.234</v>
       </c>
       <c r="E8">
-        <v>996.059</v>
+        <v>1007.495</v>
       </c>
       <c r="F8">
-        <v>0.169</v>
+        <v>0.182</v>
       </c>
       <c r="G8">
-        <v>5747.735</v>
+        <v>3299.506</v>
       </c>
       <c r="H8">
-        <v>1.06</v>
+        <v>1.045</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3.258</v>
+        <v>3.545</v>
       </c>
       <c r="C9">
         <v>85.884</v>
       </c>
       <c r="D9">
-        <v>160.635</v>
+        <v>173.565</v>
       </c>
       <c r="E9">
-        <v>1001.265</v>
+        <v>1014.195</v>
       </c>
       <c r="F9">
-        <v>0.191</v>
+        <v>0.206</v>
       </c>
       <c r="G9">
-        <v>5582.641</v>
+        <v>3227.173</v>
       </c>
       <c r="H9">
-        <v>1.047</v>
+        <v>1.037</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>3.835</v>
+        <v>4.174</v>
       </c>
       <c r="C10">
         <v>78.621</v>
       </c>
       <c r="D10">
-        <v>181.39</v>
+        <v>196.155</v>
       </c>
       <c r="E10">
-        <v>1010.655</v>
+        <v>1025.421</v>
       </c>
       <c r="F10">
-        <v>0.219</v>
+        <v>0.237</v>
       </c>
       <c r="G10">
-        <v>5423.826</v>
+        <v>3157.687</v>
       </c>
       <c r="H10">
-        <v>1.037</v>
+        <v>1.032</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4.563</v>
+        <v>4.966</v>
       </c>
       <c r="C11">
         <v>71.595</v>
       </c>
       <c r="D11">
-        <v>207.266</v>
+        <v>224.313</v>
       </c>
       <c r="E11">
-        <v>1025.427</v>
+        <v>1042.474</v>
       </c>
       <c r="F11">
-        <v>0.253</v>
+        <v>0.274</v>
       </c>
       <c r="G11">
-        <v>5272.378</v>
+        <v>3091.561</v>
       </c>
       <c r="H11">
-        <v>1.03</v>
+        <v>1.029</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>5.492</v>
+        <v>5.976</v>
       </c>
       <c r="C12">
         <v>64.82599999999999</v>
       </c>
       <c r="D12">
-        <v>239.949</v>
+        <v>259.871</v>
       </c>
       <c r="E12">
-        <v>1047.261</v>
+        <v>1067.183</v>
       </c>
       <c r="F12">
-        <v>0.297</v>
+        <v>0.322</v>
       </c>
       <c r="G12">
-        <v>5129.717</v>
+        <v>3029.477</v>
       </c>
       <c r="H12">
-        <v>1.026</v>
+        <v>1.031</v>
       </c>
     </row>
   </sheetData>

--- a/DZ/data_3.xlsx
+++ b/DZ/data_3.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>delta_ob_arr, мм</t>
-  </si>
-  <si>
-    <t>D_kr_arr, мм</t>
   </si>
   <si>
     <t>m_dv_0, кг</t>
@@ -392,13 +389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,11 +414,8 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -429,25 +423,22 @@
         <v>1.444</v>
       </c>
       <c r="C2">
-        <v>141.414</v>
+        <v>95.206</v>
       </c>
       <c r="D2">
-        <v>95.206</v>
+        <v>1023.237</v>
       </c>
       <c r="E2">
-        <v>1023.237</v>
+        <v>0.103</v>
       </c>
       <c r="F2">
-        <v>0.103</v>
+        <v>3846.651</v>
       </c>
       <c r="G2">
-        <v>3775.944</v>
-      </c>
-      <c r="H2">
-        <v>1.127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>1.131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -455,25 +446,22 @@
         <v>1.605</v>
       </c>
       <c r="C3">
-        <v>133.15</v>
+        <v>101.417</v>
       </c>
       <c r="D3">
-        <v>101.417</v>
+        <v>1016.077</v>
       </c>
       <c r="E3">
-        <v>1016.077</v>
+        <v>0.111</v>
       </c>
       <c r="F3">
-        <v>0.111</v>
+        <v>3759.129</v>
       </c>
       <c r="G3">
-        <v>3692.554</v>
-      </c>
-      <c r="H3">
-        <v>1.111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>1.115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -481,25 +469,22 @@
         <v>1.796</v>
       </c>
       <c r="C4">
-        <v>124.954</v>
+        <v>108.744</v>
       </c>
       <c r="D4">
-        <v>108.744</v>
+        <v>1010.338</v>
       </c>
       <c r="E4">
-        <v>1010.338</v>
+        <v>0.121</v>
       </c>
       <c r="F4">
-        <v>0.121</v>
+        <v>3673.011</v>
       </c>
       <c r="G4">
-        <v>3610.534</v>
-      </c>
-      <c r="H4">
-        <v>1.095</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>1.099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -507,25 +492,22 @@
         <v>2.025</v>
       </c>
       <c r="C5">
-        <v>116.852</v>
+        <v>117.429</v>
       </c>
       <c r="D5">
-        <v>117.429</v>
+        <v>1006.256</v>
       </c>
       <c r="E5">
-        <v>1006.256</v>
+        <v>0.132</v>
       </c>
       <c r="F5">
-        <v>0.132</v>
+        <v>3588.457</v>
       </c>
       <c r="G5">
-        <v>3530.031</v>
-      </c>
-      <c r="H5">
-        <v>1.081</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>1.084</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -533,25 +515,22 @@
         <v>2.3</v>
       </c>
       <c r="C6">
-        <v>108.87</v>
+        <v>127.782</v>
       </c>
       <c r="D6">
-        <v>127.782</v>
+        <v>1004.137</v>
       </c>
       <c r="E6">
-        <v>1004.137</v>
+        <v>0.146</v>
       </c>
       <c r="F6">
-        <v>0.146</v>
+        <v>3505.65</v>
       </c>
       <c r="G6">
-        <v>3451.215</v>
-      </c>
-      <c r="H6">
-        <v>1.067</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -559,25 +538,22 @@
         <v>2.634</v>
       </c>
       <c r="C7">
-        <v>101.032</v>
+        <v>140.208</v>
       </c>
       <c r="D7">
-        <v>140.208</v>
+        <v>1004.375</v>
       </c>
       <c r="E7">
-        <v>1004.375</v>
+        <v>0.162</v>
       </c>
       <c r="F7">
-        <v>0.162</v>
+        <v>3424.806</v>
       </c>
       <c r="G7">
-        <v>3374.29</v>
-      </c>
-      <c r="H7">
-        <v>1.056</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>1.058</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -585,25 +561,22 @@
         <v>3.042</v>
       </c>
       <c r="C8">
-        <v>93.36199999999999</v>
+        <v>155.234</v>
       </c>
       <c r="D8">
-        <v>155.234</v>
+        <v>1007.495</v>
       </c>
       <c r="E8">
-        <v>1007.495</v>
+        <v>0.182</v>
       </c>
       <c r="F8">
-        <v>0.182</v>
+        <v>3346.187</v>
       </c>
       <c r="G8">
-        <v>3299.506</v>
-      </c>
-      <c r="H8">
-        <v>1.045</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>1.047</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -611,25 +584,22 @@
         <v>3.545</v>
       </c>
       <c r="C9">
-        <v>85.884</v>
+        <v>173.565</v>
       </c>
       <c r="D9">
-        <v>173.565</v>
+        <v>1014.195</v>
       </c>
       <c r="E9">
-        <v>1014.195</v>
+        <v>0.206</v>
       </c>
       <c r="F9">
-        <v>0.206</v>
+        <v>3270.115</v>
       </c>
       <c r="G9">
-        <v>3227.173</v>
-      </c>
-      <c r="H9">
-        <v>1.037</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>1.039</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -637,25 +607,22 @@
         <v>4.174</v>
       </c>
       <c r="C10">
-        <v>78.621</v>
+        <v>196.155</v>
       </c>
       <c r="D10">
-        <v>196.155</v>
+        <v>1025.421</v>
       </c>
       <c r="E10">
-        <v>1025.421</v>
+        <v>0.237</v>
       </c>
       <c r="F10">
-        <v>0.237</v>
+        <v>3196.998</v>
       </c>
       <c r="G10">
-        <v>3157.687</v>
-      </c>
-      <c r="H10">
-        <v>1.032</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>1.033</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -663,25 +630,22 @@
         <v>4.966</v>
       </c>
       <c r="C11">
-        <v>71.595</v>
+        <v>224.313</v>
       </c>
       <c r="D11">
-        <v>224.313</v>
+        <v>1042.474</v>
       </c>
       <c r="E11">
-        <v>1042.474</v>
+        <v>0.274</v>
       </c>
       <c r="F11">
-        <v>0.274</v>
+        <v>3127.359</v>
       </c>
       <c r="G11">
-        <v>3091.561</v>
-      </c>
-      <c r="H11">
-        <v>1.029</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -689,21 +653,18 @@
         <v>5.976</v>
       </c>
       <c r="C12">
-        <v>64.82599999999999</v>
+        <v>259.871</v>
       </c>
       <c r="D12">
-        <v>259.871</v>
+        <v>1067.183</v>
       </c>
       <c r="E12">
-        <v>1067.183</v>
+        <v>0.322</v>
       </c>
       <c r="F12">
-        <v>0.322</v>
+        <v>3061.89</v>
       </c>
       <c r="G12">
-        <v>3029.477</v>
-      </c>
-      <c r="H12">
         <v>1.031</v>
       </c>
     </row>

--- a/DZ/data_3.xlsx
+++ b/DZ/data_3.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>delta_ob_arr, мм</t>
+  </si>
+  <si>
+    <t>D_kr, мм</t>
   </si>
   <si>
     <t>m_dv_0, кг</t>
@@ -389,13 +392,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,8 +417,11 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -423,22 +429,25 @@
         <v>1.444</v>
       </c>
       <c r="C2">
+        <v>141.414</v>
+      </c>
+      <c r="D2">
         <v>95.206</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1023.237</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.103</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>3846.651</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1.131</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -446,22 +455,25 @@
         <v>1.605</v>
       </c>
       <c r="C3">
+        <v>133.15</v>
+      </c>
+      <c r="D3">
         <v>101.417</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1016.077</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.111</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>3759.129</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1.115</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -469,22 +481,25 @@
         <v>1.796</v>
       </c>
       <c r="C4">
+        <v>124.954</v>
+      </c>
+      <c r="D4">
         <v>108.744</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1010.338</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.121</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>3673.011</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1.099</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -492,22 +507,25 @@
         <v>2.025</v>
       </c>
       <c r="C5">
+        <v>116.852</v>
+      </c>
+      <c r="D5">
         <v>117.429</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1006.256</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.132</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>3588.457</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1.084</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -515,22 +533,25 @@
         <v>2.3</v>
       </c>
       <c r="C6">
+        <v>108.87</v>
+      </c>
+      <c r="D6">
         <v>127.782</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1004.137</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.146</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>3505.65</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1.07</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -538,22 +559,25 @@
         <v>2.634</v>
       </c>
       <c r="C7">
+        <v>101.032</v>
+      </c>
+      <c r="D7">
         <v>140.208</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1004.375</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.162</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>3424.806</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1.058</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -561,22 +585,25 @@
         <v>3.042</v>
       </c>
       <c r="C8">
+        <v>93.36199999999999</v>
+      </c>
+      <c r="D8">
         <v>155.234</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1007.495</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.182</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>3346.187</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1.047</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -584,22 +611,25 @@
         <v>3.545</v>
       </c>
       <c r="C9">
+        <v>85.884</v>
+      </c>
+      <c r="D9">
         <v>173.565</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1014.195</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.206</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>3270.115</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1.039</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -607,22 +637,25 @@
         <v>4.174</v>
       </c>
       <c r="C10">
+        <v>78.621</v>
+      </c>
+      <c r="D10">
         <v>196.155</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1025.421</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.237</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>3196.998</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1.033</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -630,22 +663,25 @@
         <v>4.966</v>
       </c>
       <c r="C11">
+        <v>71.595</v>
+      </c>
+      <c r="D11">
         <v>224.313</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1042.474</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.274</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>3127.359</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1.03</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -653,18 +689,21 @@
         <v>5.976</v>
       </c>
       <c r="C12">
+        <v>64.82599999999999</v>
+      </c>
+      <c r="D12">
         <v>259.871</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1067.183</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.322</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>3061.89</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1.031</v>
       </c>
     </row>
